--- a/Files/resultExcel.xlsx
+++ b/Files/resultExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t/>
   </si>
@@ -47,7 +47,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t>pinCode</t>
+    <t>pincode</t>
   </si>
   <si>
     <t>emailId</t>
@@ -65,16 +65,49 @@
     <t>Mr</t>
   </si>
   <si>
+    <t>Midhun</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2000-02-03</t>
+  </si>
+  <si>
+    <t>sgjkd</t>
+  </si>
+  <si>
+    <t>gajjgf</t>
+  </si>
+  <si>
+    <t>jhjazhf</t>
+  </si>
+  <si>
+    <t>aEygv</t>
+  </si>
+  <si>
+    <t>jdfsya</t>
+  </si>
+  <si>
+    <t>midhunthomas@123gmail.com</t>
+  </si>
+  <si>
+    <t>Student,Guest</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
     <t>Manuel</t>
   </si>
   <si>
     <t>Jose</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>2005-05-02</t>
+    <t>2005-02-05</t>
   </si>
   <si>
     <t>gfdzJ</t>
@@ -95,40 +128,7 @@
     <t>manuel123@gmail.com</t>
   </si>
   <si>
-    <t>Friend,client</t>
-  </si>
-  <si>
-    <t>pinCode missing,invalid role</t>
-  </si>
-  <si>
-    <t>Midhun</t>
-  </si>
-  <si>
-    <t>thomas</t>
-  </si>
-  <si>
-    <t>2000-03-02</t>
-  </si>
-  <si>
-    <t>sgjkd</t>
-  </si>
-  <si>
-    <t>gajjgf</t>
-  </si>
-  <si>
-    <t>jhjazhf</t>
-  </si>
-  <si>
-    <t>aEygv</t>
-  </si>
-  <si>
-    <t>jdfsya</t>
-  </si>
-  <si>
-    <t>midhunthomas@123gmail.com</t>
-  </si>
-  <si>
-    <t>Student,Guest</t>
+    <t>Client</t>
   </si>
   <si>
     <t>created</t>
@@ -137,7 +137,7 @@
     <t>Miss</t>
   </si>
   <si>
-    <t>Malavika</t>
+    <t>Malak</t>
   </si>
   <si>
     <t>s</t>
@@ -146,7 +146,7 @@
     <t>Female</t>
   </si>
   <si>
-    <t>2000-09-05</t>
+    <t>2007-05-11</t>
   </si>
   <si>
     <t>dhfdh</t>
@@ -164,10 +164,10 @@
     <t>yjkrsya</t>
   </si>
   <si>
-    <t>malavika123@gmail.com</t>
-  </si>
-  <si>
-    <t>Admin</t>
+    <t>malak123@gmail.com</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -220,7 +220,6 @@
   <cols>
     <col min="12" max="12" width="29.21875" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="13.8671875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="26.0625" customWidth="true" bestFit="true"/>
     <col min="1" max="1" width="5.14453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.90234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.94140625" customWidth="true" bestFit="true"/>
@@ -231,8 +230,9 @@
     <col min="8" max="8" width="7.921875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="6.19140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="10.6015625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="8.4375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.1953125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="14.109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="8.546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -313,14 +313,14 @@
       <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>0</v>
+      <c r="K2" t="n">
+        <v>755471.0</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="n">
-        <v>1.23454765E8</v>
+        <v>1.146849376E9</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
@@ -361,13 +361,13 @@
         <v>36</v>
       </c>
       <c r="K3" t="n">
-        <v>755471.0</v>
+        <v>234123.0</v>
       </c>
       <c r="L3" t="s">
         <v>37</v>
       </c>
       <c r="M3" t="n">
-        <v>4.6849376E7</v>
+        <v>2.123454765E9</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>

--- a/Files/resultExcel.xlsx
+++ b/Files/resultExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t/>
   </si>
@@ -47,7 +47,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t>pinCode</t>
+    <t>pincode</t>
   </si>
   <si>
     <t>emailId</t>
@@ -65,49 +65,109 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>rahul</t>
-  </si>
-  <si>
-    <t>menon</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>2000-02-02</t>
-  </si>
-  <si>
-    <t>ddm</t>
-  </si>
-  <si>
-    <t>zzzzzz</t>
-  </si>
-  <si>
-    <t>jrfrf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdsm </t>
-  </si>
-  <si>
-    <t>rahulmenon@gmail.com</t>
-  </si>
-  <si>
-    <t>Guest,Student</t>
-  </si>
-  <si>
-    <t>nationality missing</t>
-  </si>
-  <si>
-    <t>ksjdnsd</t>
-  </si>
-  <si>
-    <t>fmns gmns</t>
-  </si>
-  <si>
-    <t>Relative</t>
-  </si>
-  <si>
-    <t>title missing,firstName missing,LastName missing,gender missing,dateOfBirth missing,street missing,district missing,state missing,pinCode missing,emailId missing,phoneNumber missing</t>
+    <t>Midhun</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>2000-02-03</t>
+  </si>
+  <si>
+    <t>sgjkd</t>
+  </si>
+  <si>
+    <t>gajjgf</t>
+  </si>
+  <si>
+    <t>jhjazhf</t>
+  </si>
+  <si>
+    <t>aEygv</t>
+  </si>
+  <si>
+    <t>jdfsya</t>
+  </si>
+  <si>
+    <t>midhunthomas@123gmail.com</t>
+  </si>
+  <si>
+    <t>Student,Guest</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>2005-02-05</t>
+  </si>
+  <si>
+    <t>gfdzJ</t>
+  </si>
+  <si>
+    <t>Hfjfmksf</t>
+  </si>
+  <si>
+    <t>adrmyh</t>
+  </si>
+  <si>
+    <t>rdhhf</t>
+  </si>
+  <si>
+    <t>tjzakjgfj</t>
+  </si>
+  <si>
+    <t>manuel123@gmail.com</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Malak</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>2007-05-11</t>
+  </si>
+  <si>
+    <t>dhfdh</t>
+  </si>
+  <si>
+    <t>SDYs</t>
+  </si>
+  <si>
+    <t>etja</t>
+  </si>
+  <si>
+    <t>heaj</t>
+  </si>
+  <si>
+    <t>yjkrsya</t>
+  </si>
+  <si>
+    <t>malak123@gmail.com</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -152,27 +212,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="12" max="12" width="23.2265625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="29.21875" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="13.8671875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="166.72265625" customWidth="true" bestFit="true"/>
-    <col min="1" max="1" width="4.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.14453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="9.90234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.33984375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.5546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="11.56640625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="8.203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="6.328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.234375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="5.98046875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.7890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="8.56640625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="7.921875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.19140625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.6015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.1953125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="14.109375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="8.546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -251,69 +311,116 @@
         <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>1245789.0</v>
+        <v>755471.0</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1111444E7</v>
+        <v>1.146849376E9</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="K3" t="n">
+        <v>234123.0</v>
       </c>
       <c r="L3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.123454765E9</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="n">
+        <v>657646.0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="n">
+        <v>9.999999999E9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Files/resultExcel.xlsx
+++ b/Files/resultExcel.xlsx
@@ -12,51 +12,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
   <si>
     <t/>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>dateOfBirth</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
-    <t>emailId</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>roles</t>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>FIRSTNAME</t>
+  </si>
+  <si>
+    <t>LASTNAME</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>DATEOFBIRTH</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>STREET</t>
+  </si>
+  <si>
+    <t>DISTRICT</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>NATIONALITY</t>
+  </si>
+  <si>
+    <t>PINCODE</t>
+  </si>
+  <si>
+    <t>EMAILID</t>
+  </si>
+  <si>
+    <t>PHONENUMBER</t>
+  </si>
+  <si>
+    <t>ROLES</t>
   </si>
   <si>
     <t>result</t>
@@ -74,7 +74,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>2000-02-03</t>
+    <t>02/03/2000</t>
   </si>
   <si>
     <t>sgjkd</t>
@@ -107,7 +107,7 @@
     <t>Jose</t>
   </si>
   <si>
-    <t>2005-02-05</t>
+    <t>02/05/2005</t>
   </si>
   <si>
     <t>gfdzJ</t>
@@ -131,9 +131,6 @@
     <t>Client</t>
   </si>
   <si>
-    <t>created</t>
-  </si>
-  <si>
     <t>Miss</t>
   </si>
   <si>
@@ -146,7 +143,7 @@
     <t>Female</t>
   </si>
   <si>
-    <t>2007-05-11</t>
+    <t>05/11/2007</t>
   </si>
   <si>
     <t>dhfdh</t>
@@ -220,18 +217,18 @@
   <cols>
     <col min="12" max="12" width="29.21875" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="13.8671875" customWidth="true" bestFit="true"/>
-    <col min="1" max="1" width="5.14453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.90234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.94140625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="7.5546875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.56640625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="8.203125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="5.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.52734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.96484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.54296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.66796875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="9.30859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="8.56640625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="7.921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="6.19140625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.6015625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="8.1953125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="14.109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="9.0234375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="6.5390625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="13.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="15.671875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="8.546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -373,54 +370,54 @@
         <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
       </c>
       <c r="K4" t="n">
         <v>657646.0</v>
       </c>
       <c r="L4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M4" t="n">
         <v>9.999999999E9</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Files/resultExcel.xlsx
+++ b/Files/resultExcel.xlsx
@@ -98,7 +98,7 @@
     <t>Student,Guest</t>
   </si>
   <si>
-    <t>updated</t>
+    <t>created</t>
   </si>
   <si>
     <t>Manuel</t>
@@ -229,7 +229,7 @@
     <col min="10" max="10" width="13.12890625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="9.20703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="15.671875" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="8.546875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="7.87109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Files/resultExcel.xlsx
+++ b/Files/resultExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t/>
   </si>
@@ -65,15 +65,48 @@
     <t>Mr</t>
   </si>
   <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>02/05/2005</t>
+  </si>
+  <si>
+    <t>gfdzJ</t>
+  </si>
+  <si>
+    <t>Hfjfmksf</t>
+  </si>
+  <si>
+    <t>adrmyh</t>
+  </si>
+  <si>
+    <t>rdhhf</t>
+  </si>
+  <si>
+    <t>tjzakjgfj</t>
+  </si>
+  <si>
+    <t>manuel123@gmail.com</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
     <t>Midhun</t>
   </si>
   <si>
     <t>thomas</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
     <t>02/03/2000</t>
   </si>
   <si>
@@ -98,37 +131,7 @@
     <t>Student,Guest</t>
   </si>
   <si>
-    <t>updated</t>
-  </si>
-  <si>
-    <t>Manuel</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>02/05/2005</t>
-  </si>
-  <si>
-    <t>gfdzJ</t>
-  </si>
-  <si>
-    <t>Hfjfmksf</t>
-  </si>
-  <si>
-    <t>adrmyh</t>
-  </si>
-  <si>
-    <t>rdhhf</t>
-  </si>
-  <si>
-    <t>tjzakjgfj</t>
-  </si>
-  <si>
-    <t>manuel123@gmail.com</t>
-  </si>
-  <si>
-    <t>Client</t>
+    <t>created</t>
   </si>
   <si>
     <t>Miss</t>
@@ -311,13 +314,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>755471.0</v>
+        <v>234123.0</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
       <c r="M2" t="n">
-        <v>1.146849376E9</v>
+        <v>2.123454765E9</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
@@ -358,66 +361,66 @@
         <v>36</v>
       </c>
       <c r="K3" t="n">
-        <v>234123.0</v>
+        <v>755471.0</v>
       </c>
       <c r="L3" t="s">
         <v>37</v>
       </c>
       <c r="M3" t="n">
-        <v>2.123454765E9</v>
+        <v>1.146849376E9</v>
       </c>
       <c r="N3" t="s">
         <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="n">
         <v>657646.0</v>
       </c>
       <c r="L4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" t="n">
         <v>9.999999999E9</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
